--- a/TwoNewOrg/src/main/webapp/resources/templet/shehui.xlsx
+++ b/TwoNewOrg/src/main/webapp/resources/templet/shehui.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -449,7 +448,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -493,11 +492,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
       <formula1>"小学,初中,高中,大专,本科,硕士研究生,博士研究生,中专,其它"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
-      <formula1>"转入,发展,因转未转组织关系"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:G1048576">
       <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+      <formula1>"转入,发展,应转未转入组织关系,应转未转出组织关系"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
